--- a/Tervek/Adatbázis tervek/EK leképezés.xlsx
+++ b/Tervek/Adatbázis tervek/EK leképezés.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28A9150-481C-4E31-8747-0BFF26C36C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="17205" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>Adatbázis neve</t>
   </si>
@@ -54,30 +55,15 @@
     <t>Jogosultság</t>
   </si>
   <si>
-    <t>ObjectID</t>
-  </si>
-  <si>
     <t>Szöveg(200)</t>
   </si>
   <si>
-    <t>SHA1(Szöveg)(40)</t>
-  </si>
-  <si>
-    <t>int(1)</t>
-  </si>
-  <si>
     <t>Családfák</t>
   </si>
   <si>
     <t>Felhasználók.ID</t>
   </si>
   <si>
-    <t>Szöveg(30)</t>
-  </si>
-  <si>
-    <t>Alapértelmezett?</t>
-  </si>
-  <si>
     <t>Boolean</t>
   </si>
   <si>
@@ -87,30 +73,9 @@
     <t>Családfák.ID</t>
   </si>
   <si>
-    <t>Publikus?</t>
-  </si>
-  <si>
-    <t>Háttérszín</t>
-  </si>
-  <si>
-    <t>Szöveg(6)</t>
-  </si>
-  <si>
-    <t>Alapértelmezett jelölés színe</t>
-  </si>
-  <si>
-    <t>Nő jelölés színe</t>
-  </si>
-  <si>
-    <t>Férfi jelölés színe</t>
-  </si>
-  <si>
     <t>Családtagok</t>
   </si>
   <si>
-    <t>Profilkép neve</t>
-  </si>
-  <si>
     <t>Szöveg(120)</t>
   </si>
   <si>
@@ -132,15 +97,9 @@
     <t>Dátum</t>
   </si>
   <si>
-    <t>Halálozási  hely</t>
-  </si>
-  <si>
     <t>Halálozási  idő</t>
   </si>
   <si>
-    <t>Saját mezők</t>
-  </si>
-  <si>
     <t>Képek</t>
   </si>
   <si>
@@ -153,55 +112,82 @@
     <t>Szöveg</t>
   </si>
   <si>
-    <t>QR kód</t>
-  </si>
-  <si>
-    <t>Családtagok.ID mint Partner</t>
-  </si>
-  <si>
-    <t>Családtagok.ID mint Családtag</t>
-  </si>
-  <si>
-    <t>Anyák</t>
-  </si>
-  <si>
-    <t>Családtagok.ID mint Anya</t>
-  </si>
-  <si>
-    <t>Apák</t>
-  </si>
-  <si>
-    <t>Családtagok.ID mint Apa</t>
-  </si>
-  <si>
-    <t>objectID</t>
-  </si>
-  <si>
     <t>Szöveg(255)</t>
   </si>
   <si>
-    <t>Partner</t>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Tiltás</t>
+  </si>
+  <si>
+    <t>Tiltás üzenet</t>
+  </si>
+  <si>
+    <t>SHA1(Szöveg)(64)</t>
+  </si>
+  <si>
+    <t>Szöveg(40)</t>
+  </si>
+  <si>
+    <t>Sötét mód</t>
+  </si>
+  <si>
+    <t>Férfi kártya színe</t>
+  </si>
+  <si>
+    <t>Nő kártya színe</t>
+  </si>
+  <si>
+    <t>Férfi kártya betű színe</t>
+  </si>
+  <si>
+    <t>Nő kártya betű színe</t>
+  </si>
+  <si>
+    <t>Publikus</t>
+  </si>
+  <si>
+    <t>Belső fa ID</t>
+  </si>
+  <si>
+    <t>Szöveg(10)</t>
+  </si>
+  <si>
+    <t>Profilkép</t>
+  </si>
+  <si>
+    <t>Vezetéknév</t>
+  </si>
+  <si>
+    <t>Keresztnév</t>
+  </si>
+  <si>
+    <t>Nem</t>
+  </si>
+  <si>
+    <t>Apa ID</t>
+  </si>
+  <si>
+    <t>Anya ID</t>
+  </si>
+  <si>
+    <t>Partnerek</t>
+  </si>
+  <si>
+    <t>Cím</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,53 +399,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -739,11 +717,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,441 +733,445 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="13" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="11" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D36" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="6" t="s">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="13" t="s">
+      <c r="D38" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A2:A40"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B18:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
+  <mergeCells count="7">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="B20:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A2:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
